--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฒ(4).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฒ(4).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68E4D7F-ECA9-8E42-B41E-AFCB6D9B97D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A68E4D7F-ECA9-8E42-B41E-AFCB6D9B97D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{123B7C58-B11F-4646-874E-CA66C1B2061A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2715" windowWidth="21525" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>เฒ่าหัวงู</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๑๘ เรียกว่า ฒอ ผู้เฒ่า เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากดหรือแม่กด เช่น วัฒน์ วุฒิ.</t>
-  </si>
-  <si>
     <t>ว. แก่, มีอายุมาก, เถ้า ก็ใช้.</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>related_word</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๑๘ เรียกว่า ฒอ ผู้เฒ่า เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากดหรือแม่กด เช่น วัฒน์ วุฒิ.</t>
   </si>
 </sst>
 </file>
@@ -444,18 +444,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,53 +466,53 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
